--- a/Implementation/Python/AggData.xlsx
+++ b/Implementation/Python/AggData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,170 +455,74 @@
       <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.9830082718216695</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>20.3155042843145</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>99.34191624818111</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9830082718216695</v>
+        <v>91.06875040133519</v>
       </c>
       <c r="E2" t="n">
-        <v>20.3155042843145</v>
+        <v>88.30050752205149</v>
       </c>
       <c r="F2" t="n">
-        <v>99.34191624818111</v>
+        <v>96.27118138291216</v>
       </c>
       <c r="G2" t="n">
-        <v>91.06875040133519</v>
-      </c>
-      <c r="H2" t="n">
-        <v>88.30050752205149</v>
-      </c>
-      <c r="I2" t="n">
-        <v>96.27118138291216</v>
-      </c>
-      <c r="J2" t="n">
         <v>94.42624680085159</v>
-      </c>
-      <c r="K2" t="n">
-        <v>92.23835616438356</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.00273972602739726</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.00136986301369863</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>49</v>
+        <v>0.9495043747971189</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>18.50112117119656</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>91.14616910691329</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9495043747971189</v>
+        <v>83.81867430910616</v>
       </c>
       <c r="E3" t="n">
-        <v>18.50112117119656</v>
+        <v>81.81481555077569</v>
       </c>
       <c r="F3" t="n">
-        <v>91.14616910691329</v>
+        <v>86.83290481671158</v>
       </c>
       <c r="G3" t="n">
-        <v>83.81867430910616</v>
-      </c>
-      <c r="H3" t="n">
-        <v>81.81481555077569</v>
-      </c>
-      <c r="I3" t="n">
-        <v>86.83290481671158</v>
-      </c>
-      <c r="J3" t="n">
         <v>86.0878678902582</v>
-      </c>
-      <c r="K3" t="n">
-        <v>46.14839797639123</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.003653738055087128</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.0002810567734682406</v>
-      </c>
-      <c r="N3" t="n">
-        <v>13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>0.9741095992842678</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>19.48533427471531</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>99.38900934237239</v>
       </c>
       <c r="D4" t="n">
-        <v>1.908507969343208</v>
+        <v>93.74410090504364</v>
       </c>
       <c r="E4" t="n">
-        <v>22.32173063559307</v>
+        <v>91.55987171189039</v>
       </c>
       <c r="F4" t="n">
-        <v>98.80822051034686</v>
+        <v>95.80927364889961</v>
       </c>
       <c r="G4" t="n">
-        <v>91.50753264015026</v>
-      </c>
-      <c r="H4" t="n">
-        <v>88.32120327588265</v>
-      </c>
-      <c r="I4" t="n">
-        <v>95.42986473170183</v>
-      </c>
-      <c r="J4" t="n">
-        <v>94.07697425665542</v>
-      </c>
-      <c r="K4" t="n">
-        <v>46.581</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+        <v>94.73621155177649</v>
       </c>
     </row>
   </sheetData>
